--- a/CRUDCreateCode/data/input/models/Dashboard.xlsx
+++ b/CRUDCreateCode/data/input/models/Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B2F48F-1D21-7447-8916-D1C9A469C635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C74EB24-8665-7F46-BE29-F56D1086900A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" activeTab="1" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" activeTab="11" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>Variable</t>
   </si>
@@ -86,24 +86,6 @@
   </si>
   <si>
     <t>ForeignKey</t>
-  </si>
-  <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>"html"</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>retrieve</t>
-  </si>
-  <si>
-    <t>update</t>
   </si>
   <si>
     <t>functions</t>
@@ -113,9 +95,6 @@
     </t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>on_delete</t>
   </si>
   <si>
@@ -125,9 +104,6 @@
     <t>through</t>
   </si>
   <si>
-    <t>Meta</t>
-  </si>
-  <si>
     <t>related_name</t>
   </si>
   <si>
@@ -170,12 +146,6 @@
     <t>"Updated at"</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -186,10 +156,6 @@
   </si>
   <si>
     <t>"Price"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def __str__(self):
-        return self.date</t>
   </si>
   <si>
     <t xml:space="preserve">    class Meta:
@@ -200,13 +166,20 @@
     <t>model_name</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>DateTimeField(blank=False, null=False</t>
-  </si>
-  <si>
-    <t>IntegerField(blank=False, null=False</t>
+    <t>app_name</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __str__(self):
+        return f"{self.date} - {self.price}"</t>
+  </si>
+  <si>
+    <t>models.DateTimeField(blank=False, null=False)</t>
+  </si>
+  <si>
+    <t>models.IntegerField(blank=False, null=False)</t>
   </si>
 </sst>
 </file>
@@ -582,216 +555,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
-    <col min="6" max="12" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="7" max="13" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="R3" s="3"/>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="S4" s="3"/>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -801,17 +779,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DE9946-B381-0247-B0AA-E67A7DD58800}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -821,17 +805,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D736743-F982-B748-AF4D-941EEF6BA5FF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -841,52 +831,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF3DF2-641B-5E44-AA75-D6FFD80FBD8B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -896,20 +857,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540C8802-93F5-934E-A5A4-9367D2DD392C}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>48</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -919,20 +883,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB21847-3EE7-A140-B134-BAE2492D8688}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>48</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -942,20 +909,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F742372-7B7B-5D43-90D5-5BBA8FE46175}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>48</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -965,67 +935,104 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392458AD-5532-D547-859A-558BE3096D46}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11826D96-4B9C-D74B-80D5-B8E75D410088}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0437A48-3006-3A4F-8E27-223B720E6D4E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="51">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1034,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5DCB6D-D252-554A-AA6D-EF7613AF9735}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1045,17 +1052,23 @@
     <col min="1" max="1" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1065,17 +1078,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCCD04C-73D9-ED48-83F8-2B0724B93DB6}">
-  <dimension ref="D1"/>
+  <dimension ref="D1:F1"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="4:4">
+    <row r="1" spans="4:6">
       <c r="D1" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/CRUDCreateCode/data/input/models/Dashboard.xlsx
+++ b/CRUDCreateCode/data/input/models/Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C74EB24-8665-7F46-BE29-F56D1086900A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A621155D-0C21-7445-AE37-456FE31F1835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" activeTab="11" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t>Variable</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t>models.IntegerField(blank=False, null=False)</t>
+  </si>
+  <si>
+    <t>faker_type</t>
+  </si>
+  <si>
+    <t>faker_function</t>
+  </si>
+  <si>
+    <t>date()</t>
+  </si>
+  <si>
+    <t>round(random.uniform(10, 500), 2)</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
 </sst>
 </file>
@@ -555,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -567,11 +582,11 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" customWidth="1"/>
-    <col min="7" max="13" width="11.1640625" customWidth="1"/>
+    <col min="6" max="8" width="32.1640625" customWidth="1"/>
+    <col min="9" max="15" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -591,67 +606,73 @@
         <v>29</v>
       </c>
       <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -670,22 +691,28 @@
       <c r="F2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="V2" s="3">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3">
-        <v>1</v>
-      </c>
+      <c r="G2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
       <c r="X2" s="3">
         <v>1</v>
       </c>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
       <c r="Z2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AB2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -704,18 +731,24 @@
       <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="V3" s="3">
-        <v>1</v>
-      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="3"/>
       <c r="X3" s="3">
         <v>1</v>
       </c>
       <c r="Z3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AB3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -734,16 +767,19 @@
       <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="V4" s="3">
-        <v>1</v>
-      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="3"/>
       <c r="X4" s="3">
         <v>1</v>
       </c>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -762,14 +798,17 @@
       <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3"/>
-      <c r="V5" s="3">
-        <v>1</v>
-      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="3"/>
       <c r="X5" s="3">
         <v>1</v>
       </c>
-      <c r="Z5" s="3"/>
+      <c r="Z5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -833,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF3DF2-641B-5E44-AA75-D6FFD80FBD8B}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O44" sqref="M43:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
